--- a/outputs/HRT/gridsearch_results/gridsearch_SGD_results.xlsx
+++ b/outputs/HRT/gridsearch_results/gridsearch_SGD_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MinMaxScaler</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'classifier__alpha': 0.001, 'classifier__loss': 'log_loss', 'classifier__max_iter': 1000, 'classifier__penalty': 'l2', 'classifier__tol': 0.001, 'scaler': MinMaxScaler()}</t>
+          <t>{'classifier__alpha': 0.001, 'classifier__loss': 'log_loss', 'classifier__max_iter': 1000, 'classifier__penalty': 'l2', 'classifier__tol': 0.001, 'scaler': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -507,12 +507,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>StandardScaler</t>
+          <t>MinMaxScaler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'classifier__alpha': 0.1, 'classifier__loss': 'log_loss', 'classifier__max_iter': 1000, 'classifier__penalty': 'l2', 'classifier__tol': 0.001, 'scaler': StandardScaler()}</t>
+          <t>{'classifier__alpha': 0.001, 'classifier__loss': 'log_loss', 'classifier__max_iter': 1000, 'classifier__penalty': 'l2', 'classifier__tol': 0.001, 'scaler': MinMaxScaler()}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -525,6 +525,35 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'classifier__alpha': 0.01, 'classifier__loss': 'log_loss', 'classifier__max_iter': 1000, 'classifier__penalty': 'l2', 'classifier__tol': 0.001, 'scaler': StandardScaler()}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
